--- a/2-course/МатСтат/ЛР5.xlsx
+++ b/2-course/МатСтат/ЛР5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\Portfolio\2-course\МатСтат\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Portfolio\2-course\МатСтат\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58428FEA-4A33-411F-8FC6-9ABB02404726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B7AB77-E3A0-4CA3-AA9D-D5336ABF8942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{F9645E30-CE5F-4ADC-86D3-75E0D9A6CD9E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F9645E30-CE5F-4ADC-86D3-75E0D9A6CD9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Задание 1" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -173,14 +170,14 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -206,9 +203,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -246,7 +243,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -352,7 +349,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -494,7 +491,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -505,23 +502,23 @@
   <dimension ref="B2:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="E10" sqref="E10:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="2.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="2.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.21875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
@@ -556,7 +553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -571,15 +568,15 @@
         <f>D3^2</f>
         <v>2.4999999999998934E-3</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="8">
         <f>C$10+(SUM($D$3:$D$7)/5)</f>
         <v>14.818</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="9">
         <f xml:space="preserve"> (1/(5*(5-1)))*(SUM(E3:E7)-(5*((F3-C10)^2)))</f>
         <v>1.3400000000000247E-4</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="10">
         <f>SQRT(G3)</f>
         <v>1.1575836902790333E-2</v>
       </c>
@@ -610,12 +607,12 @@
         <f t="shared" ref="E4:E7" si="1">D4^2</f>
         <v>0</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="8">
         <f t="shared" ref="F4:F7" si="2">C$10+(SUM($D$3:$D$7)/5)</f>
         <v>14.818</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10"/>
       <c r="I4" s="11"/>
       <c r="J4" s="12"/>
       <c r="K4" s="5" t="s">
@@ -637,12 +634,12 @@
         <f t="shared" si="1"/>
         <v>1.0000000000003127E-4</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="8">
         <f t="shared" si="2"/>
         <v>14.818</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
       <c r="I5" s="11"/>
       <c r="J5" s="12"/>
       <c r="K5" s="5" t="s">
@@ -664,12 +661,12 @@
         <f t="shared" si="1"/>
         <v>1.5999999999999318E-3</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="8">
         <f t="shared" si="2"/>
         <v>14.818</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
       <c r="I6" s="11"/>
       <c r="J6" s="12"/>
       <c r="K6" s="5" t="s">
@@ -691,24 +688,24 @@
         <f t="shared" si="1"/>
         <v>9.9999999999995736E-5</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="8">
         <f t="shared" si="2"/>
         <v>14.818</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
       <c r="I7" s="11"/>
       <c r="J7" s="12"/>
       <c r="K7" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="C10" s="5">
         <v>14.8</v>
       </c>
